--- a/Learning_assisted_review/figure/runtime.xlsx
+++ b/Learning_assisted_review/figure/runtime.xlsx
@@ -86,8 +86,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -97,11 +101,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -234,11 +242,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2116974248"/>
-        <c:axId val="2116083464"/>
+        <c:axId val="2104516536"/>
+        <c:axId val="2104517800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116974248"/>
+        <c:axId val="2104516536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,12 +260,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116083464"/>
+        <c:crossAx val="2104517800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -265,7 +273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116083464"/>
+        <c:axId val="2104517800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,7 +294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116974248"/>
+        <c:crossAx val="2104516536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -300,7 +308,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600"/>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -334,7 +342,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.173294400699912"/>
+          <c:y val="0.231156313794109"/>
+          <c:w val="0.790594488188976"/>
+          <c:h val="0.590139982502187"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -348,7 +366,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Review Time</c:v>
+                  <c:v>Training Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -375,10 +393,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1224.0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>558.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Training Time</c:v>
+                  <c:v>Review Time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -420,10 +438,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="0.00">
-                  <c:v>1.5</c:v>
+                  <c:v>1224.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>558.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -439,11 +457,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2129918696"/>
-        <c:axId val="2122574008"/>
+        <c:axId val="-2143402344"/>
+        <c:axId val="-2143399336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2129918696"/>
+        <c:axId val="-2143402344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,21 +475,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="2000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122574008"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="-2143399336"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122574008"/>
+        <c:axId val="-2143399336"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -491,7 +510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129918696"/>
+        <c:crossAx val="-2143402344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -505,7 +524,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600"/>
+            <a:defRPr sz="2000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -940,7 +959,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -960,28 +979,29 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1224</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>558</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1.5</v>
+        <v>1224</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
